--- a/Exercises/06/cnn-ex1-stud.xlsx
+++ b/Exercises/06/cnn-ex1-stud.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janickrueegger/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janickrueegger/anaconda3/notebooks/mse/MSE-TSM_DeLearn/Exercises/06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD8F04D-F0F0-4C47-8054-ABE41736D59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D6D796-675E-5B4D-9D13-E7DFAADC1B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{8C63438D-D797-2F4D-8C3D-BC6A238C5B67}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -204,7 +204,7 @@
     <t>S</t>
   </si>
   <si>
-    <t>Given a filter size of 2x2 and stride S=1, the padding would need to have P_W=1 and P_H=1 to create the same ouput dimension as input dimension.</t>
+    <t>Given a filter size of 2x2 and stride S=1, the padding would need to have P_W=0.5 and P_H=0.5 to create the same ouput dimension as input dimension.</t>
   </si>
 </sst>
 </file>
@@ -401,9 +401,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,12 +433,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -459,6 +450,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,8 +487,8 @@
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1143000" cy="327397"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -530,6 +530,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -617,7 +618,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -681,8 +682,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1143000" cy="327397"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -724,6 +725,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -811,7 +813,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1004,7 +1006,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:colOff>106187</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -1354,13 +1356,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1368,10 +1370,10 @@
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="2">
         <v>1</v>
       </c>
@@ -1399,11 +1401,11 @@
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
@@ -1449,7 +1451,7 @@
       <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>2</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -1461,14 +1463,14 @@
     </row>
     <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -1480,7 +1482,7 @@
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E11" cm="1">
@@ -1514,7 +1516,7 @@
     </row>
     <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E12" cm="1">
@@ -1536,7 +1538,7 @@
     </row>
     <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E13" cm="1">
@@ -1550,7 +1552,7 @@
     </row>
     <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D14" cm="1">
@@ -1592,7 +1594,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D15" cm="1">
@@ -1642,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D308E945-0386-A246-9572-FC8DE175F97D}">
   <dimension ref="A1:AM35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AQ38" sqref="AQ38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="144" workbookViewId="0">
+      <selection activeCell="AM30" sqref="AM30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1653,18 +1655,20 @@
     <col min="3" max="29" width="4" style="1" customWidth="1"/>
     <col min="30" max="32" width="3.6640625" style="1" customWidth="1"/>
     <col min="33" max="34" width="3.33203125" style="1" customWidth="1"/>
-    <col min="35" max="39" width="3.6640625" style="1" customWidth="1"/>
+    <col min="35" max="36" width="3.6640625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="5" style="1" customWidth="1"/>
+    <col min="38" max="39" width="3.6640625" style="1" customWidth="1"/>
     <col min="40" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -1676,11 +1680,11 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="15"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="23" t="s">
         <v>22</v>
       </c>
       <c r="V1" s="6"/>
@@ -1690,9 +1694,9 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="26" t="s">
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="23" t="s">
         <v>23</v>
       </c>
       <c r="AF1" s="6"/>
@@ -1702,7 +1706,7 @@
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
-      <c r="AM1" s="17"/>
+      <c r="AM1" s="16"/>
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -1715,21 +1719,21 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="24"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="18"/>
+      <c r="Q2" s="17"/>
       <c r="R2" s="4"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="21" t="s">
         <v>20</v>
       </c>
       <c r="V2" s="5"/>
@@ -1741,21 +1745,21 @@
       </c>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="18"/>
+      <c r="AC2" s="17"/>
       <c r="AD2" s="4"/>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="21" t="s">
         <v>20</v>
       </c>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
-      <c r="AJ2" s="24" t="s">
+      <c r="AJ2" s="21" t="s">
         <v>21</v>
       </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
-      <c r="AM2" s="18"/>
+      <c r="AM2" s="17"/>
     </row>
     <row r="3" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1796,7 +1800,7 @@
       <c r="P3" s="2">
         <v>1</v>
       </c>
-      <c r="Q3" s="18"/>
+      <c r="Q3" s="17"/>
       <c r="R3" s="4"/>
       <c r="S3" s="5" t="s">
         <v>2</v>
@@ -1828,7 +1832,7 @@
         <f>SUMPRODUCT(F3:G4,O3:P4)+P12</f>
         <v>2</v>
       </c>
-      <c r="AC3" s="18"/>
+      <c r="AC3" s="17"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="2">
         <f>SUM(U3,U9,U15)</f>
@@ -1856,7 +1860,7 @@
         <f>SUM(AB3,AB9,AB15)</f>
         <v>5</v>
       </c>
-      <c r="AM3" s="18"/>
+      <c r="AM3" s="17"/>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -1891,7 +1895,7 @@
       <c r="P4" s="2">
         <v>0</v>
       </c>
-      <c r="Q4" s="18"/>
+      <c r="Q4" s="17"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -1921,7 +1925,7 @@
         <f>SUMPRODUCT(F4:G5,O3:P4)+P12</f>
         <v>2</v>
       </c>
-      <c r="AC4" s="18"/>
+      <c r="AC4" s="17"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="2">
         <f t="shared" ref="AE4:AG4" si="0">SUM(U4,U10,U16)</f>
@@ -1949,7 +1953,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AM4" s="18"/>
+      <c r="AM4" s="17"/>
     </row>
     <row r="5" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
@@ -1976,7 +1980,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="18"/>
+      <c r="Q5" s="17"/>
       <c r="R5" s="4"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -2006,7 +2010,7 @@
         <f>SUMPRODUCT(F5:G6,O3:P4)+P12</f>
         <v>2</v>
       </c>
-      <c r="AC5" s="18"/>
+      <c r="AC5" s="17"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="2">
         <f t="shared" ref="AE5:AG5" si="2">SUM(U5,U11,U17)</f>
@@ -2034,7 +2038,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="AM5" s="18"/>
+      <c r="AM5" s="17"/>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
@@ -2071,7 +2075,7 @@
       <c r="P6" s="2">
         <v>0</v>
       </c>
-      <c r="Q6" s="18"/>
+      <c r="Q6" s="17"/>
       <c r="R6" s="4"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -2083,7 +2087,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="18"/>
+      <c r="AC6" s="17"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
@@ -2093,7 +2097,7 @@
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
-      <c r="AM6" s="18"/>
+      <c r="AM6" s="17"/>
     </row>
     <row r="7" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
@@ -2120,7 +2124,7 @@
       <c r="P7" s="2">
         <v>0</v>
       </c>
-      <c r="Q7" s="18"/>
+      <c r="Q7" s="17"/>
       <c r="R7" s="4"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -2132,7 +2136,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
-      <c r="AC7" s="18"/>
+      <c r="AC7" s="17"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
@@ -2142,7 +2146,7 @@
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
-      <c r="AM7" s="18"/>
+      <c r="AM7" s="17"/>
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
@@ -2161,7 +2165,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="18"/>
+      <c r="Q8" s="17"/>
       <c r="R8" s="4"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -2173,7 +2177,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="18"/>
+      <c r="AC8" s="17"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
@@ -2183,7 +2187,7 @@
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
-      <c r="AM8" s="18"/>
+      <c r="AM8" s="17"/>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
@@ -2222,7 +2226,7 @@
       <c r="P9" s="2">
         <v>0</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="17"/>
       <c r="R9" s="4"/>
       <c r="S9" s="5" t="s">
         <v>3</v>
@@ -2254,7 +2258,7 @@
         <f>SUMPRODUCT(F9:G10,O6:P7)+P12</f>
         <v>3</v>
       </c>
-      <c r="AC9" s="18"/>
+      <c r="AC9" s="17"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
@@ -2264,7 +2268,7 @@
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
-      <c r="AM9" s="18"/>
+      <c r="AM9" s="17"/>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -2299,7 +2303,7 @@
       <c r="P10" s="2">
         <v>1</v>
       </c>
-      <c r="Q10" s="18"/>
+      <c r="Q10" s="17"/>
       <c r="R10" s="4"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -2329,7 +2333,7 @@
         <f>SUMPRODUCT(F10:G11,O6:P7)+P12</f>
         <v>3</v>
       </c>
-      <c r="AC10" s="18"/>
+      <c r="AC10" s="17"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
@@ -2339,7 +2343,7 @@
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
-      <c r="AM10" s="18"/>
+      <c r="AM10" s="17"/>
     </row>
     <row r="11" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
@@ -2366,7 +2370,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="18"/>
+      <c r="Q11" s="17"/>
       <c r="R11" s="4"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -2396,7 +2400,7 @@
         <f>SUMPRODUCT(F11:G12,O6:P7)+P12</f>
         <v>1</v>
       </c>
-      <c r="AC11" s="18"/>
+      <c r="AC11" s="17"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
@@ -2406,7 +2410,7 @@
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
-      <c r="AM11" s="18"/>
+      <c r="AM11" s="17"/>
     </row>
     <row r="12" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
@@ -2441,7 +2445,7 @@
       <c r="P12" s="2">
         <v>-1</v>
       </c>
-      <c r="Q12" s="18"/>
+      <c r="Q12" s="17"/>
       <c r="R12" s="4"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -2453,7 +2457,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="18"/>
+      <c r="AC12" s="17"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
@@ -2463,7 +2467,7 @@
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
-      <c r="AM12" s="18"/>
+      <c r="AM12" s="17"/>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
@@ -2482,7 +2486,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="17"/>
       <c r="R13" s="4"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -2494,7 +2498,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="18"/>
+      <c r="AC13" s="17"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
@@ -2504,7 +2508,7 @@
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
-      <c r="AM13" s="18"/>
+      <c r="AM13" s="17"/>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
@@ -2523,7 +2527,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="18"/>
+      <c r="Q14" s="17"/>
       <c r="R14" s="4"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -2535,7 +2539,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
-      <c r="AC14" s="18"/>
+      <c r="AC14" s="17"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
@@ -2545,7 +2549,7 @@
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="18"/>
+      <c r="AM14" s="17"/>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
@@ -2574,7 +2578,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="18"/>
+      <c r="Q15" s="17"/>
       <c r="R15" s="4"/>
       <c r="S15" s="5" t="s">
         <v>4</v>
@@ -2606,7 +2610,7 @@
         <f>SUMPRODUCT(F15:G16,O9:P10)+P12</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="18"/>
+      <c r="AC15" s="17"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
@@ -2616,7 +2620,7 @@
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
-      <c r="AM15" s="18"/>
+      <c r="AM15" s="17"/>
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
@@ -2643,7 +2647,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="18"/>
+      <c r="Q16" s="17"/>
       <c r="R16" s="4"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -2673,7 +2677,7 @@
         <f>SUMPRODUCT(F16:G17,O9:P10)+P12</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="18"/>
+      <c r="AC16" s="17"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
@@ -2683,7 +2687,7 @@
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
-      <c r="AM16" s="18"/>
+      <c r="AM16" s="17"/>
     </row>
     <row r="17" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -2710,7 +2714,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="18"/>
+      <c r="Q17" s="17"/>
       <c r="R17" s="4"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -2740,7 +2744,7 @@
         <f>SUMPRODUCT(F17:G18,O9:P10)+P12</f>
         <v>1</v>
       </c>
-      <c r="AC17" s="18"/>
+      <c r="AC17" s="17"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
@@ -2750,7 +2754,7 @@
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
-      <c r="AM17" s="18"/>
+      <c r="AM17" s="17"/>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -2777,7 +2781,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="18"/>
+      <c r="Q18" s="17"/>
       <c r="R18" s="4"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
@@ -2789,7 +2793,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="18"/>
+      <c r="AC18" s="17"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
@@ -2799,52 +2803,52 @@
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
-      <c r="AM18" s="18"/>
+      <c r="AM18" s="17"/>
     </row>
     <row r="19" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="21"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="20"/>
     </row>
     <row r="20" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="24" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2885,7 +2889,7 @@
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="Z28" s="28" t="s">
+      <c r="Z28" s="25" t="s">
         <v>34</v>
       </c>
       <c r="AB28" s="1" t="s">
@@ -2898,8 +2902,8 @@
         <v>4</v>
       </c>
       <c r="AG28" s="3"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="29" t="s">
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2922,7 +2926,7 @@
         <v>37</v>
       </c>
       <c r="AD30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI30" s="1" t="s">
         <v>45</v>
